--- a/old/enp.xlsx
+++ b/old/enp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stepan Polikanov\Documents\Coursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stepan Polikanov\Documents\GitHub\domparty\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A67BCA-80DC-4AF8-B131-28B9376376D8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC59429-E8E3-4D9C-B35C-8BBCB9EA1F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2745" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -314,9 +314,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -354,9 +354,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,26 +389,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,26 +424,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -636,21 +602,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="B153" workbookViewId="0">
+      <selection activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +649,7 @@
       </c>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -712,7 +678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -741,7 +707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -770,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -799,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -828,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -860,7 +826,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -889,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -918,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -947,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -976,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1005,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1034,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1063,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1092,7 +1058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1121,7 +1087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1150,7 +1116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1179,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1208,7 +1174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1237,7 +1203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1266,7 +1232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1295,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1324,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1353,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1382,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1411,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1440,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1469,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1498,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1527,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1556,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1588,7 +1554,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1617,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1646,7 +1612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1675,7 +1641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1704,7 +1670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1733,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1762,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1791,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1820,7 +1786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1849,7 +1815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1878,7 +1844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -1907,7 +1873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1936,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1965,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -1994,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -2023,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -2052,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -2081,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -2110,7 +2076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -2139,7 +2105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -2168,7 +2134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -2197,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -2226,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -2255,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -2284,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -2313,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
@@ -2342,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4</v>
       </c>
@@ -2371,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4</v>
       </c>
@@ -2400,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -2429,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -2458,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4</v>
       </c>
@@ -2487,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4</v>
       </c>
@@ -2516,7 +2482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -2545,7 +2511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -2574,7 +2540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4</v>
       </c>
@@ -2603,7 +2569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4</v>
       </c>
@@ -2632,7 +2598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4</v>
       </c>
@@ -2661,7 +2627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -2690,7 +2656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -2719,7 +2685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4</v>
       </c>
@@ -2748,7 +2714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -2777,7 +2743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4</v>
       </c>
@@ -2806,7 +2772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4</v>
       </c>
@@ -2835,7 +2801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
@@ -2864,7 +2830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -2893,7 +2859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4</v>
       </c>
@@ -2922,7 +2888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -2951,7 +2917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -2980,7 +2946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -3009,7 +2975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
@@ -3038,7 +3004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -3067,7 +3033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -3096,7 +3062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -3128,7 +3094,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -3157,7 +3123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
@@ -3186,7 +3152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
@@ -3215,7 +3181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
@@ -3244,7 +3210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -3273,7 +3239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -3302,7 +3268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -3331,7 +3297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -3360,7 +3326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -3389,7 +3355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -3418,7 +3384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -3447,7 +3413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -3476,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -3505,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -3534,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -3563,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -3592,7 +3558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -3621,7 +3587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -3650,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -3679,7 +3645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -3708,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -3737,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4</v>
       </c>
@@ -3766,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -3795,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4</v>
       </c>
@@ -3824,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4</v>
       </c>
@@ -3853,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -3882,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>4</v>
       </c>
@@ -3911,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4</v>
       </c>
@@ -3940,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>4</v>
       </c>
@@ -3969,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>4</v>
       </c>
@@ -3998,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>4</v>
       </c>
@@ -4027,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4</v>
       </c>
@@ -4056,7 +4022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>4</v>
       </c>
@@ -4085,7 +4051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>4</v>
       </c>
@@ -4114,7 +4080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>4</v>
       </c>
@@ -4143,7 +4109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4</v>
       </c>
@@ -4172,7 +4138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4</v>
       </c>
@@ -4201,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4</v>
       </c>
@@ -4230,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4</v>
       </c>
@@ -4259,7 +4225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4</v>
       </c>
@@ -4288,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4</v>
       </c>
@@ -4320,7 +4286,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -4349,7 +4315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>4</v>
       </c>
@@ -4378,7 +4344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4</v>
       </c>
@@ -4407,7 +4373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4</v>
       </c>
@@ -4436,7 +4402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4</v>
       </c>
@@ -4465,7 +4431,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4</v>
       </c>
@@ -4494,7 +4460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4</v>
       </c>
@@ -4523,7 +4489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4</v>
       </c>
@@ -4552,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4</v>
       </c>
@@ -4581,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4</v>
       </c>
@@ -4610,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>4</v>
       </c>
@@ -4639,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>4</v>
       </c>
@@ -4668,7 +4634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4</v>
       </c>
@@ -4697,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4</v>
       </c>
@@ -4726,7 +4692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>4</v>
       </c>
@@ -4755,7 +4721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
@@ -4784,7 +4750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>4</v>
       </c>
@@ -4813,7 +4779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>4</v>
       </c>
@@ -4842,7 +4808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>4</v>
       </c>
@@ -4871,7 +4837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4</v>
       </c>
@@ -4900,7 +4866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>4</v>
       </c>
@@ -4929,7 +4895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>4</v>
       </c>
@@ -4958,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
@@ -4987,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4</v>
       </c>
@@ -5016,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>4</v>
       </c>
@@ -5045,7 +5011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>4</v>
       </c>
@@ -5074,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>4</v>
       </c>
@@ -5103,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>4</v>
       </c>
@@ -5132,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>4</v>
       </c>
@@ -5161,7 +5127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>4</v>
       </c>
@@ -5205,16 +5171,16 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -5243,7 +5209,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5266,7 +5232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5289,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5315,7 +5281,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5338,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -5361,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5384,7 +5350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5407,7 +5373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -5430,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -5453,7 +5419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -5476,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5499,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -5522,7 +5488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5545,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -5568,7 +5534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -5591,7 +5557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -5614,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -5637,7 +5603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -5660,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -5683,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -5706,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -5729,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -5752,7 +5718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -5775,7 +5741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -5798,7 +5764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -5821,7 +5787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5847,7 +5813,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -5870,7 +5836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -5893,7 +5859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -5916,7 +5882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -5939,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -5962,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -5985,7 +5951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -6008,7 +5974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -6031,7 +5997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -6054,7 +6020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -6077,7 +6043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -6103,7 +6069,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -6126,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -6149,7 +6115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -6172,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -6195,7 +6161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -6218,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
